--- a/5th/1_2/data/1-2.xlsx
+++ b/5th/1_2/data/1-2.xlsx
@@ -8,44 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryoga/Documents/Class/ClassExperiment/5th/1_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CDD91D-8290-C241-9031-2B2CF024B30C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FF84B9-6137-794F-B02D-2D535802D9C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="2" xr2:uid="{EDEFF211-6C44-DE40-A462-5CCCB45F685A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="1" xr2:uid="{EDEFF211-6C44-DE40-A462-5CCCB45F685A}"/>
   </bookViews>
   <sheets>
     <sheet name="実験5.1，実験5.2" sheetId="3" r:id="rId1"/>
     <sheet name="実験5.3" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'実験5.3'!$C$3:$C$23</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'実験5.3'!$D$3:$D$23</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'実験5.3'!$D$3:$D$23</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'実験5.3'!$E$3:$E$23</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'実験5.3'!$H$3:$H$23</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'実験5.3'!$I$3:$I$23</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'実験5.3'!$J$3:$J$23</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'実験5.3'!$M$3:$M$23</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'実験5.3'!$N$3:$N$23</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'実験5.3'!$O$3:$O$23</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'実験5.3'!$C$3:$C$23</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'実験5.3'!$D$3:$D$23</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'実験5.3'!$E$3:$E$23</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'実験5.3'!$E$3:$E$23</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'実験5.3'!$H$3:$H$23</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'実験5.3'!$I$3:$I$23</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'実験5.3'!$J$3:$J$23</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'実験5.3'!$M$3:$M$23</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'実験5.3'!$N$3:$N$23</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'実験5.3'!$O$3:$O$23</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'実験5.3'!$H$3:$H$23</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'実験5.3'!$I$3:$I$23</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'実験5.3'!$J$3:$J$23</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'実験5.3'!$M$3:$M$23</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'実験5.3'!$N$3:$N$23</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'実験5.3'!$O$3:$O$23</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'実験5.3'!$C$3:$C$23</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -62,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>発生電圧[V]</t>
     <rPh sb="0" eb="4">
@@ -150,6 +121,16 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>最大出力[mW]</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>sh</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -206,13 +187,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,10 +233,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1141,6 +1152,905 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'実験5.1，実験5.2'!$C$27:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'実験5.1，実験5.2'!$F$27:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>277.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>331.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402.50000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>475.59999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>531.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>584.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>625.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1127.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1547</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2374.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2688.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2986.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3306</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3648.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3915.5000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B52B-ED44-8297-0024003F2E88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1405483856"/>
+        <c:axId val="1405775456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1405483856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405775456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1405775456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405483856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'実験5.1，実験5.2'!$C$27:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'実験5.1，実験5.2'!$F$27:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>277.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>331.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402.50000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>475.59999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>531.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>584.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>625.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1127.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1547</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2374.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2688.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2986.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3306</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3648.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3915.5000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B52B-ED44-8297-0024003F2E88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1405483856"/>
+        <c:axId val="1405775456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1405483856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>照度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[lx]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405775456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1405775456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>最大出力</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[mW]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405483856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
@@ -2705,7 +3615,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3614,7 +4524,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4799,11 +5709,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>照度</a:t>
+                  <a:t>電圧</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>[lx]</a:t>
+                  <a:t>[V]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5268,10 +6178,13 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -5305,10 +6218,13 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -5378,6 +6294,80 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7442,19 +8432,1051 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1079501</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>850901</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7480,6 +9502,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>301925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>122549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>712395</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>117230</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96CCFE18-45FF-6142-9D93-765A6D485F44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>372533</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>229409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>747954</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E5189BE-EBA2-8E40-A08A-CA6C09C9153C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7488,15 +9582,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>954049</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>13009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>501805</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>101909</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7902,27 +9996,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F0721A-C732-A649-996D-4C7C048F9106}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="50" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="8"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="9"/>
       <c r="H1" s="8"/>
     </row>
@@ -7950,7 +10046,7 @@
       <c r="B3" s="3">
         <v>100</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>100.8</v>
       </c>
       <c r="D3" s="4">
@@ -7970,7 +10066,7 @@
       <c r="B4" s="3">
         <v>200</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>201</v>
       </c>
       <c r="D4" s="4">
@@ -7990,7 +10086,7 @@
       <c r="B5" s="3">
         <v>300</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>304</v>
       </c>
       <c r="D5" s="4">
@@ -8010,7 +10106,7 @@
       <c r="B6" s="3">
         <v>400</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>402</v>
       </c>
       <c r="D6" s="4">
@@ -8030,7 +10126,7 @@
       <c r="B7" s="3">
         <v>500</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>503</v>
       </c>
       <c r="D7" s="4">
@@ -8050,7 +10146,7 @@
       <c r="B8" s="3">
         <v>600</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>598</v>
       </c>
       <c r="D8" s="4">
@@ -8070,7 +10166,7 @@
       <c r="B9" s="3">
         <v>700</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>711</v>
       </c>
       <c r="D9" s="4">
@@ -8090,7 +10186,7 @@
       <c r="B10" s="3">
         <v>800</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>798</v>
       </c>
       <c r="D10" s="4">
@@ -8110,7 +10206,7 @@
       <c r="B11" s="3">
         <v>900</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>896</v>
       </c>
       <c r="D11" s="4">
@@ -8130,7 +10226,7 @@
       <c r="B12" s="3">
         <v>1000</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>1050</v>
       </c>
       <c r="D12" s="4">
@@ -8150,7 +10246,7 @@
       <c r="B13" s="3">
         <v>2000</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>2100</v>
       </c>
       <c r="D13" s="4">
@@ -8170,7 +10266,7 @@
       <c r="B14" s="3">
         <v>3000</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>2990</v>
       </c>
       <c r="D14" s="4">
@@ -8190,7 +10286,7 @@
       <c r="B15" s="3">
         <v>4000</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>3970</v>
       </c>
       <c r="D15" s="4">
@@ -8210,7 +10306,7 @@
       <c r="B16" s="3">
         <v>5000</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>5050</v>
       </c>
       <c r="D16" s="4">
@@ -8230,7 +10326,7 @@
       <c r="B17" s="3">
         <v>6000</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>5970</v>
       </c>
       <c r="D17" s="4">
@@ -8250,7 +10346,7 @@
       <c r="B18" s="3">
         <v>7000</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>6970</v>
       </c>
       <c r="D18" s="4">
@@ -8270,7 +10366,7 @@
       <c r="B19" s="3">
         <v>8000</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>7960</v>
       </c>
       <c r="D19" s="4">
@@ -8290,7 +10386,7 @@
       <c r="B20" s="3">
         <v>9000</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>9060</v>
       </c>
       <c r="D20" s="4">
@@ -8310,7 +10406,7 @@
       <c r="B21" s="3">
         <v>10000</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>10700</v>
       </c>
       <c r="D21" s="4">
@@ -8330,7 +10426,7 @@
       <c r="B22" s="3">
         <v>20000</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>20500</v>
       </c>
       <c r="D22" s="4">
@@ -8350,7 +10446,7 @@
       <c r="B23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>25500</v>
       </c>
       <c r="D23" s="4">
@@ -8365,6 +10461,379 @@
       <c r="H23" s="3">
         <v>379</v>
       </c>
+    </row>
+    <row r="25" spans="2:8" ht="21" thickBot="1">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="2:8" ht="21" thickBot="1">
+      <c r="B26" s="8"/>
+      <c r="C26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8">
+        <v>100</v>
+      </c>
+      <c r="D27" s="12">
+        <v>11</v>
+      </c>
+      <c r="E27" s="8">
+        <v>3</v>
+      </c>
+      <c r="F27" s="8">
+        <f>D27*E27</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8">
+        <v>200</v>
+      </c>
+      <c r="D28" s="12">
+        <v>13.7</v>
+      </c>
+      <c r="E28" s="8">
+        <v>9</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" ref="F28:G46" si="0">D28*E28</f>
+        <v>123.3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8">
+        <v>300</v>
+      </c>
+      <c r="D29" s="12">
+        <v>14.7</v>
+      </c>
+      <c r="E29" s="8">
+        <v>13</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="0"/>
+        <v>191.1</v>
+      </c>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>2484.2999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8">
+        <v>400</v>
+      </c>
+      <c r="D30" s="12">
+        <v>15.4</v>
+      </c>
+      <c r="E30" s="8">
+        <v>18</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="0"/>
+        <v>277.2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8">
+        <v>500</v>
+      </c>
+      <c r="D31" s="12">
+        <v>15.8</v>
+      </c>
+      <c r="E31" s="8">
+        <v>21</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="0"/>
+        <v>331.8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8">
+        <v>600</v>
+      </c>
+      <c r="D32" s="12">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E32" s="8">
+        <v>25</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="0"/>
+        <v>402.50000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8">
+        <v>700</v>
+      </c>
+      <c r="D33" s="12">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E33" s="8">
+        <v>29</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="0"/>
+        <v>475.59999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8">
+        <v>800</v>
+      </c>
+      <c r="D34" s="12">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E34" s="8">
+        <v>32</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="0"/>
+        <v>531.20000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8">
+        <v>900</v>
+      </c>
+      <c r="D35" s="12">
+        <v>16.7</v>
+      </c>
+      <c r="E35" s="8">
+        <v>35</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="0"/>
+        <v>584.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="12">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E36" s="8">
+        <v>37</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="0"/>
+        <v>625.29999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D37" s="12">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E37" s="8">
+        <v>63</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" si="0"/>
+        <v>1127.6999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D38" s="12">
+        <v>18.2</v>
+      </c>
+      <c r="E38" s="8">
+        <v>85</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="0"/>
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8">
+        <v>4000</v>
+      </c>
+      <c r="D39" s="12">
+        <v>18.5</v>
+      </c>
+      <c r="E39" s="8">
+        <v>106</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="0"/>
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8">
+        <v>5000</v>
+      </c>
+      <c r="D40" s="12">
+        <v>18.7</v>
+      </c>
+      <c r="E40" s="8">
+        <v>127</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="0"/>
+        <v>2374.9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8">
+        <v>6000</v>
+      </c>
+      <c r="D41" s="12">
+        <v>18.8</v>
+      </c>
+      <c r="E41" s="8">
+        <v>143</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="0"/>
+        <v>2688.4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8">
+        <v>7000</v>
+      </c>
+      <c r="D42" s="12">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E42" s="8">
+        <v>158</v>
+      </c>
+      <c r="F42" s="8">
+        <f t="shared" si="0"/>
+        <v>2986.2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8">
+        <v>8000</v>
+      </c>
+      <c r="D43" s="12">
+        <v>19</v>
+      </c>
+      <c r="E43" s="8">
+        <v>174</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="0"/>
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8">
+        <v>9000</v>
+      </c>
+      <c r="D44" s="12">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E44" s="8">
+        <v>191</v>
+      </c>
+      <c r="F44" s="8">
+        <f t="shared" si="0"/>
+        <v>3648.1000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8">
+        <v>10000</v>
+      </c>
+      <c r="D45" s="12">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E45" s="8">
+        <v>205</v>
+      </c>
+      <c r="F45" s="8">
+        <f t="shared" si="0"/>
+        <v>3915.5000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="21" thickBot="1">
+      <c r="B46" s="8"/>
+      <c r="C46" s="17">
+        <v>20000</v>
+      </c>
+      <c r="D46" s="18">
+        <v>19.5</v>
+      </c>
+      <c r="E46" s="17">
+        <v>322</v>
+      </c>
+      <c r="F46" s="17">
+        <f t="shared" si="0"/>
+        <v>6279</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="8"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8382,8 +10851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794F48B2-1381-7F46-95E7-9D42F0753BA7}">
   <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="90" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="82" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9309,8 +11778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4F430E-60B5-3144-ACCF-4E15EE6B227D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="162" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="A23" zoomScale="75" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/5th/1_2/data/1-2.xlsx
+++ b/5th/1_2/data/1-2.xlsx
@@ -8,15 +8,52 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryoga/Documents/Class/ClassExperiment/5th/1_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FF84B9-6137-794F-B02D-2D535802D9C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE22587-17F9-9F40-AB42-E6F1D31390E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="1" xr2:uid="{EDEFF211-6C44-DE40-A462-5CCCB45F685A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{EDEFF211-6C44-DE40-A462-5CCCB45F685A}"/>
   </bookViews>
   <sheets>
     <sheet name="実験5.1，実験5.2" sheetId="3" r:id="rId1"/>
     <sheet name="実験5.3" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'実験5.1，実験5.2'!$C$27:$C$46</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'実験5.1，実験5.2'!$F$27:$F$46</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'実験5.3'!$E$3:$E$23</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'実験5.3'!$H$3:$H$23</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'実験5.3'!$I$3:$I$23</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'実験5.3'!$J$3:$J$23</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'実験5.3'!$M$3:$M$23</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'実験5.3'!$N$3:$N$23</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'実験5.3'!$O$3:$O$23</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'実験5.3'!$C$3:$C$23</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'実験5.3'!$D$3:$D$23</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'実験5.3'!$E$3:$E$23</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'実験5.1，実験5.2'!$C$27:$C$46</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'実験5.3'!$H$3:$H$23</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'実験5.3'!$I$3:$I$23</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'実験5.3'!$J$3:$J$23</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'実験5.3'!$M$3:$M$23</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'実験5.3'!$N$3:$N$23</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'実験5.3'!$O$3:$O$23</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'実験5.3'!$C$3:$C$23</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'実験5.3'!$D$3:$D$23</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'実験5.3'!$E$3:$E$23</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'実験5.3'!$H$3:$H$23</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'実験5.1，実験5.2'!$F$27:$F$46</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'実験5.3'!$I$3:$I$23</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'実験5.3'!$J$3:$J$23</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'実験5.3'!$M$3:$M$23</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'実験5.3'!$N$3:$N$23</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'実験5.3'!$O$3:$O$23</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'実験5.1，実験5.2'!$C$27:$C$46</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'実験5.1，実験5.2'!$F$27:$F$46</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'実験5.1，実験5.2'!$C$27:$C$46</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'実験5.1，実験5.2'!$F$27:$F$46</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'実験5.3'!$C$3:$C$23</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'実験5.3'!$D$3:$D$23</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -164,27 +201,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -202,29 +224,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -233,32 +237,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,7 +532,7 @@
             <c:numRef>
               <c:f>'実験5.1，実験5.2'!$G$3:$G$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>103</c:v>
@@ -1074,7 +1084,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1152,48 +1162,20 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1351,7 +1333,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B52B-ED44-8297-0024003F2E88}"/>
@@ -1390,6 +1372,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>照度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[lx]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1452,6 +1494,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>最大出力</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[mW]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3643,7 +3745,202 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>電流</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'実験5.1，実験5.2'!$G$3:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2970</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5090</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6050</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7980</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9030</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'実験5.1，実験5.2'!$H$3:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-94A3-7D48-951A-6B08AF26ED18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1062027199"/>
+        <c:axId val="1116949887"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3652,8 +3949,10 @@
             <c:v>電圧</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3817,7 +4116,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-94A3-7D48-951A-6B08AF26ED18}"/>
@@ -3832,201 +4131,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1062027199"/>
-        <c:axId val="1116949887"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>電流</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'実験5.1，実験5.2'!$G$3:$G$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>492</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>597</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>709</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>798</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>902</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1970</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2970</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4010</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5090</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6050</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7980</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9030</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'実験5.1，実験5.2'!$H$3:$H$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>379</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-94A3-7D48-951A-6B08AF26ED18}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1098154463"/>
-        <c:axId val="1063216495"/>
+        <c:axId val="803557759"/>
+        <c:axId val="789730383"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1062027199"/>
@@ -4265,7 +4371,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4307,73 +4413,13 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1063216495"/>
+        <c:axId val="789730383"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>発電電流</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>[mA]</a:t>
-                </a:r>
-                <a:endParaRPr lang="en" altLang="ja-JP"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4410,24 +4456,23 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1098154463"/>
+        <c:crossAx val="803557759"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1098154463"/>
+        <c:axId val="803557759"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1063216495"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="789730383"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -4448,9 +4493,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.8704286566574696"/>
-          <c:y val="3.054756226339583E-2"/>
-          <c:w val="5.4509318955542702E-2"/>
+          <c:x val="0.86710544289449498"/>
+          <c:y val="2.1915381428814142E-2"/>
+          <c:w val="6.4722052787397635E-2"/>
           <c:h val="7.9136583068793426E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -4552,7 +4597,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4561,8 +4606,10 @@
             <c:v>200lx電流</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4726,7 +4773,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B838-5F4F-9160-27519ECEF383}"/>
@@ -4740,8 +4787,10 @@
             <c:v>2000lx電流</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4905,7 +4954,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B838-5F4F-9160-27519ECEF383}"/>
@@ -4919,8 +4968,10 @@
             <c:v>20000lx電流</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5084,7 +5135,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B838-5F4F-9160-27519ECEF383}"/>
@@ -5103,7 +5154,7 @@
         <c:axId val="1116124591"/>
       </c:scatterChart>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -5112,8 +5163,10 @@
             <c:v>200lx電力</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5277,7 +5330,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B838-5F4F-9160-27519ECEF383}"/>
@@ -5291,8 +5344,10 @@
             <c:v>2000lx電力</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5456,7 +5511,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-B838-5F4F-9160-27519ECEF383}"/>
@@ -5470,8 +5525,10 @@
             <c:v>20000lx電力</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5635,7 +5692,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-B838-5F4F-9160-27519ECEF383}"/>
@@ -6064,9 +6121,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.82102565876574252"/>
+          <c:x val="0.80104442727380798"/>
           <c:y val="6.0763915286451267E-2"/>
-          <c:w val="0.10422479686867135"/>
+          <c:w val="0.12420608143543413"/>
           <c:h val="0.24005654385578346"/>
         </c:manualLayout>
       </c:layout>
@@ -9998,8 +10055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F0721A-C732-A649-996D-4C7C048F9106}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="83" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10007,35 +10064,35 @@
     <col min="2" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="8"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="8"/>
+    <row r="1" spans="1:8" ht="21" thickBot="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:8">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:8" ht="21" thickBot="1">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -10043,802 +10100,801 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>100</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>100.8</v>
       </c>
       <c r="D3" s="4">
         <v>11</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>100</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="11">
         <v>103</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>200</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>201</v>
       </c>
       <c r="D4" s="4">
         <v>13.7</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>200</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="11">
         <v>201</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>300</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>304</v>
       </c>
       <c r="D5" s="4">
         <v>14.7</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>300</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="11">
         <v>296</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>400</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>402</v>
       </c>
       <c r="D6" s="4">
         <v>15.4</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>400</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="11">
         <v>400</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>500</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <v>503</v>
       </c>
       <c r="D7" s="4">
         <v>15.8</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>500</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="11">
         <v>492</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>600</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>598</v>
       </c>
       <c r="D8" s="4">
         <v>16.100000000000001</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>600</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="11">
         <v>597</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>700</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="11">
         <v>711</v>
       </c>
       <c r="D9" s="4">
         <v>16.399999999999999</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>700</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="11">
         <v>709</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>800</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="11">
         <v>798</v>
       </c>
       <c r="D10" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>800</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="11">
         <v>798</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>900</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="11">
         <v>896</v>
       </c>
       <c r="D11" s="4">
         <v>16.7</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>900</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="11">
         <v>902</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>1000</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="11">
         <v>1050</v>
       </c>
       <c r="D12" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>1000</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="11">
         <v>997</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>2000</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="11">
         <v>2100</v>
       </c>
       <c r="D13" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>2000</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="11">
         <v>1970</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>3000</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="11">
         <v>2990</v>
       </c>
       <c r="D14" s="4">
         <v>18.2</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>3000</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="11">
         <v>2970</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>4000</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="11">
         <v>3970</v>
       </c>
       <c r="D15" s="4">
         <v>18.5</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>4000</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="11">
         <v>4010</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>5000</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="11">
         <v>5050</v>
       </c>
       <c r="D16" s="4">
         <v>18.7</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>5000</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="11">
         <v>5090</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>6000</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="11">
         <v>5970</v>
       </c>
       <c r="D17" s="4">
         <v>18.8</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>6000</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="11">
         <v>6050</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>143</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>7000</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="11">
         <v>6970</v>
       </c>
       <c r="D18" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>7000</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="11">
         <v>7000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>158</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>8000</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="11">
         <v>7960</v>
       </c>
       <c r="D19" s="4">
         <v>19</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>8000</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="11">
         <v>7980</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>174</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>9000</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="11">
         <v>9060</v>
       </c>
       <c r="D20" s="4">
         <v>19.100000000000001</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>9000</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="11">
         <v>9030</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>191</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>10000</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="11">
         <v>10700</v>
       </c>
       <c r="D21" s="4">
         <v>19.100000000000001</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>10000</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="11">
         <v>10000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>205</v>
       </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>20000</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="11">
         <v>20500</v>
       </c>
       <c r="D22" s="4">
         <v>19.5</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>20000</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="11">
         <v>20200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="2:8" ht="21" thickBot="1">
+      <c r="B23" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="13">
         <v>25500</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="10">
         <v>19.600000000000001</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="13">
         <v>25100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="9">
         <v>379</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="21" thickBot="1">
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:8" ht="21" thickBot="1">
-      <c r="B26" s="8"/>
-      <c r="C26" s="14" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2">
         <v>100</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="4">
         <v>11</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="2">
         <v>3</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="2">
         <f>D27*E27</f>
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2">
         <v>200</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="4">
         <v>13.7</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="2">
         <v>9</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="2">
         <f t="shared" ref="F28:G46" si="0">D28*E28</f>
         <v>123.3</v>
       </c>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2">
         <v>300</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="4">
         <v>14.7</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="2">
         <v>13</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="2">
         <f t="shared" si="0"/>
         <v>191.1</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="2">
         <f t="shared" si="0"/>
         <v>2484.2999999999997</v>
       </c>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2">
         <v>400</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="4">
         <v>15.4</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="2">
         <v>18</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="2">
         <f t="shared" si="0"/>
         <v>277.2</v>
       </c>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2">
         <v>500</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="4">
         <v>15.8</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="2">
         <v>21</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="2">
         <f t="shared" si="0"/>
         <v>331.8</v>
       </c>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2">
         <v>600</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="4">
         <v>16.100000000000001</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="2">
         <v>25</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="2">
         <f t="shared" si="0"/>
         <v>402.50000000000006</v>
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2">
         <v>700</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="4">
         <v>16.399999999999999</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="2">
         <v>29</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="2">
         <f t="shared" si="0"/>
         <v>475.59999999999997</v>
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2">
         <v>800</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="2">
         <v>32</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="2">
         <f t="shared" si="0"/>
         <v>531.20000000000005</v>
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2">
         <v>900</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="4">
         <v>16.7</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="2">
         <v>35</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="2">
         <f t="shared" si="0"/>
         <v>584.5</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2">
         <v>1000</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="2">
         <v>37</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="2">
         <f t="shared" si="0"/>
         <v>625.29999999999995</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2">
         <v>2000</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="2">
         <v>63</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="2">
         <f t="shared" si="0"/>
         <v>1127.6999999999998</v>
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2">
         <v>3000</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="4">
         <v>18.2</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="2">
         <v>85</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="2">
         <f t="shared" si="0"/>
         <v>1547</v>
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2">
         <v>4000</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="4">
         <v>18.5</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="2">
         <v>106</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="2">
         <f t="shared" si="0"/>
         <v>1961</v>
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2">
         <v>5000</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="4">
         <v>18.7</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="2">
         <v>127</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="2">
         <f t="shared" si="0"/>
         <v>2374.9</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2">
         <v>6000</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="4">
         <v>18.8</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="2">
         <v>143</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="2">
         <f t="shared" si="0"/>
         <v>2688.4</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2">
         <v>7000</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="2">
         <v>158</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="2">
         <f t="shared" si="0"/>
         <v>2986.2</v>
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2">
         <v>8000</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="4">
         <v>19</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="2">
         <v>174</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="2">
         <f t="shared" si="0"/>
         <v>3306</v>
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="8"/>
-      <c r="C44" s="8">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2">
         <v>9000</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="4">
         <v>19.100000000000001</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="2">
         <v>191</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="2">
         <f t="shared" si="0"/>
         <v>3648.1000000000004</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2">
         <v>10000</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="4">
         <v>19.100000000000001</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="2">
         <v>205</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="2">
         <f t="shared" si="0"/>
         <v>3915.5000000000005</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="21" thickBot="1">
-      <c r="B46" s="8"/>
-      <c r="C46" s="17">
+      <c r="B46" s="2"/>
+      <c r="C46" s="9">
         <v>20000</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="10">
         <v>19.5</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="9">
         <v>322</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="9">
         <f t="shared" si="0"/>
         <v>6279</v>
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="8"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10851,8 +10907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794F48B2-1381-7F46-95E7-9D42F0753BA7}">
   <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="82" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -11778,8 +11834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4F430E-60B5-3144-ACCF-4E15EE6B227D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="75" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
+    <sheetView topLeftCell="A16" zoomScale="75" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
